--- a/static/exports/daily_reports/2025-05-15_DailyDriverReport.xlsx
+++ b/static/exports/daily_reports/2025-05-15_DailyDriverReport.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,345 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arrival</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>departure</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>John Smith</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RAM-2500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mary Johnson</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>F-150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Robert Williams</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ET-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Patricia Brown</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RAM-3500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>07:10 AM</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Michael Davis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ET-12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>06:50 AM</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Linda Miller</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>F-250</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RAM-1500</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>07:05 AM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Elizabeth Moore</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ET-08</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>David Taylor</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>F-350</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Early Departure</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jennifer Anderson</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RAM-2500</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>07:20 AM</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Charles Thomas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ET-15</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Barbara Jackson</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>F-150</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>06:55 AM</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Roger Doddy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>UNMATCHED</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/static/exports/daily_reports/2025-05-15_DailyDriverReport.xlsx
+++ b/static/exports/daily_reports/2025-05-15_DailyDriverReport.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>arrival</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>division</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>job_title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Roger Doddy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DODROG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PT-07S</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>04:45 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TEXDIST</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Select Maintenance Employee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>